--- a/1USEPA_PSDM/7PSDM_EditMathieu/Example_PFHpA_1.xlsx
+++ b/1USEPA_PSDM/7PSDM_EditMathieu/Example_PFHpA_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu\PycharmProjects\Thesis-Activated-Carbon-Modelling\1USEPA_PSDM\7PSDM_EditMathieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A8EAA2-43E5-4A3D-A830-6AEC8C73F1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D352D5-4066-4540-B80E-5390F725191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -633,22 +633,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C35B5A-4C99-4FFF-A009-4B0244077301}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>364.06</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -664,7 +664,7 @@
         <v>203.15799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -672,7 +672,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1.792</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -712,7 +712,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -728,7 +728,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -745,18 +745,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB297697-1B90-46DD-B82E-FCE20BA48421}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -764,7 +764,7 @@
         <v>6.7640000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,7 +772,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -788,7 +788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -809,12 +809,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -825,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -833,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -871,7 +871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -882,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -893,7 +893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -904,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -915,7 +915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -926,7 +926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -942,7 +942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -950,7 +950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -958,7 +958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -979,15 +979,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1070,15 +1070,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1259,18 +1259,18 @@
       <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
     <col min="2" max="2" width="148" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="157.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="156" x14ac:dyDescent="0.6">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="94.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1331,15 +1331,15 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2068,6 +2068,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -2108,20 +2122,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D265CA-67CD-4AD3-99A3-30810910E78A}">
   <ds:schemaRefs>
@@ -2146,6 +2146,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D2AB43-1478-4761-B6C2-35F0AE76DC6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2164,20 +2180,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>